--- a/Tecnical/SPRINTS_v2.0.xlsx
+++ b/Tecnical/SPRINTS_v2.0.xlsx
@@ -71,9 +71,6 @@
     <t>3) O sistema deverá validar os filtros selecionados pelo gestor para que possa emitir o relatório com coesão.</t>
   </si>
   <si>
-    <t>2) Caso o produto pesquisado não seja encontrado, o sistema deve informar que o produto está indisponível ou não foi encontrado.</t>
-  </si>
-  <si>
     <t>Como diretor executivo da empresa eu quero controlar os gastos e pedidos de compras das áreas para que seja possível administrar o orçamento de cada um dos departamentos da emrpesa.</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
       </rPr>
       <t>para atualizar e carregar os dados orçamentários gravados no banco de dados.</t>
     </r>
+  </si>
+  <si>
+    <t>2) O sistema deverá enviar um alerta de erro para o usuário caso ocorra alguma falha durante o processo de cadastro do pedido de compra. E também deverá enviar um alerta de sucesso caso a operação seja bem sucedida.</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -947,7 +946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -955,10 +954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17">
         <v>1</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>6</v>
@@ -1013,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -1025,19 +1025,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20">
         <v>2</v>
       </c>
@@ -1045,19 +1045,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -1069,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -1089,25 +1089,25 @@
         <v>3</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="26" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G10" s="14">
         <v>3</v>
@@ -1119,13 +1119,13 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20">
         <v>3</v>
       </c>
@@ -1133,159 +1133,159 @@
         <v>4</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="14"/>
     </row>
@@ -1293,8 +1293,38 @@
       <c r="F27" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G26"/>
+  <autoFilter ref="B2:G26">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="32">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D21:D23"/>
@@ -1303,30 +1333,6 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1354,7 +1360,7 @@
     <row r="1" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1363,24 +1369,24 @@
     </row>
     <row r="3" spans="2:6" ht="31.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -1389,7 +1395,7 @@
     </row>
     <row r="5" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -1398,7 +1404,7 @@
     </row>
     <row r="6" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="8" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="9" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -1434,7 +1440,7 @@
     </row>
     <row r="10" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
@@ -1443,7 +1449,7 @@
     </row>
     <row r="11" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -1452,7 +1458,7 @@
     </row>
     <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1461,7 +1467,7 @@
     </row>
     <row r="13" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -1470,7 +1476,7 @@
     </row>
     <row r="14" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -1508,7 +1514,7 @@
     <row r="1" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1517,24 +1523,24 @@
     </row>
     <row r="3" spans="2:6" ht="31.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -1543,7 +1549,7 @@
     </row>
     <row r="5" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -1552,7 +1558,7 @@
     </row>
     <row r="6" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -1561,7 +1567,7 @@
     </row>
     <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="8" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1579,7 +1585,7 @@
     </row>
     <row r="9" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -1588,7 +1594,7 @@
     </row>
     <row r="10" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
@@ -1597,7 +1603,7 @@
     </row>
     <row r="11" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -1606,7 +1612,7 @@
     </row>
     <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1615,7 +1621,7 @@
     </row>
     <row r="13" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -1624,7 +1630,7 @@
     </row>
     <row r="14" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -1662,7 +1668,7 @@
     <row r="1" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1671,24 +1677,24 @@
     </row>
     <row r="3" spans="2:6" ht="31.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="5" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -1706,7 +1712,7 @@
     </row>
     <row r="6" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -1715,7 +1721,7 @@
     </row>
     <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -1724,7 +1730,7 @@
     </row>
     <row r="8" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1733,7 +1739,7 @@
     </row>
     <row r="9" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -1742,7 +1748,7 @@
     </row>
     <row r="10" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="11" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -1760,7 +1766,7 @@
     </row>
     <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="13" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="14" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
